--- a/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3025,4 +3026,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4954</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0994</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0913</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7978</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7605</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4108,4 +4109,1086 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2697</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1419</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2784</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8675</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7093</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6461</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4466</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4367</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3445</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2727</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1856</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5191,4 +5192,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>27</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5200,7 +5201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5211,17 +5212,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5231,14 +5252,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>27</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.01</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1940</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -5247,14 +5290,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.2</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5510</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5263,14 +5328,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.72</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>47.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0748</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5279,13 +5366,1367 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2698</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0606</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0504</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6125</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4056</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>660006</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6625,7 +6626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6636,17 +6637,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6656,14 +6677,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.06</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1131</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6672,14 +6715,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.01</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.4408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6688,14 +6753,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.2</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>39.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9917</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -6704,14 +6791,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.72</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9877</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -6720,13 +6829,1269 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9617</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5864</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4851</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3904</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7974,7 +7975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7985,17 +7986,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8005,14 +8026,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.47</v>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0738</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8021,14 +8064,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>36</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.06</v>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8681</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -8037,14 +8102,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.01</v>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8053,14 +8140,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.2</v>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>35.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7786</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -8069,14 +8178,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.72</v>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0744</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -8085,13 +8216,1437 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9697</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7571</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5369</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3470</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2963</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证银行交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-0.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>-0.0114</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>17.8</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>21.47</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>21.06</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>17.01</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>18.2</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>13.72</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.13</v>
       </c>
     </row>
@@ -600,6 +617,1390 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8828</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9887</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4770</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4335</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3173</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2500</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008592</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2206</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证800银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008593</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中证银行A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016343</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2137,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3485,7 +4886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4902,1088 +6303,6 @@
       </c>
       <c r="H37" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512800</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2697</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515290</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.1419</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.7684</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>450002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国富弹性市值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>49.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.2784</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512700</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8675</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011152</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富兰克林国海兴海回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>73.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7093</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161121</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6461</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161723</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5784</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161029</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证银行指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4466</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160631</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4367</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160517</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3445</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>160716</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2923</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>512820</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>99.70</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2727</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515020</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1856</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009860</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1628</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160418</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1023</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512730</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0972</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159887</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国中证800银行交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>99.53</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0950</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>516310</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>易方达中证银行交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>99.17</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0764</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>81.82</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0678</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>512750</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>99.48</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011971</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0324</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>160725</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>515280</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>99.24</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>168205</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中融中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011972</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6048,36 +6367,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515290</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证银行ETF</t>
+          <t>华宝中证银行ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>99.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4954</t>
+          <t>3.2697</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -6086,36 +6405,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>450009</t>
+          <t>515290</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国富中小盘股票</t>
+          <t>天弘中证银行ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.15</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>99.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1196</t>
+          <t>3.1419</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6124,36 +6443,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>450009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝中证银行ETF</t>
+          <t>国富中小盘股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.65</t>
+          <t>46.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.87</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.0994</t>
+          <t>2.7684</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6172,22 +6491,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.35</t>
+          <t>49.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.06</t>
+          <t>87.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3047</t>
+          <t>2.2784</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -6200,36 +6519,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>512700</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰上证180金融ETF</t>
+          <t>南方中证银行ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.66</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>99.97</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0913</t>
+          <t>0.8675</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -6248,12 +6567,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>62.54</t>
+          <t>73.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -6263,11 +6582,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7978</t>
+          <t>0.7093</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -6276,36 +6595,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512700</t>
+          <t>161121</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方中证银行ETF</t>
+          <t>易方达中证银行指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>18.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.61</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7605</t>
+          <t>0.6461</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -6314,36 +6633,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161121</t>
+          <t>161723</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达中证银行指数（LOF）A</t>
+          <t>招商中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6198</t>
+          <t>0.5784</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -6352,36 +6671,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160631</t>
+          <t>161029</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华中证银行指数（LOF）</t>
+          <t>富国中证银行指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5411</t>
+          <t>0.4466</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -6390,36 +6709,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161723</t>
+          <t>160631</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商中证银行指数（LOF）</t>
+          <t>鹏华中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5294</t>
+          <t>0.4367</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -6428,36 +6747,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161029</t>
+          <t>160517</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国中证银行指数</t>
+          <t>博时中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3372</t>
+          <t>0.3445</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -6466,36 +6785,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160517</t>
+          <t>160716</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时中证银行指数（LOF）</t>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3095</t>
+          <t>0.2923</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -6504,36 +6823,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160716</t>
+          <t>512820</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+          <t>汇添富中证银行ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>99.70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3028</t>
+          <t>0.2727</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -6542,36 +6861,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>512820</t>
+          <t>515020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富中证银行ETF</t>
+          <t>华夏中证银行ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1905</t>
+          <t>0.1856</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -6590,26 +6909,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1567</t>
+          <t>0.1628</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -6618,36 +6937,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>515020</t>
+          <t>160418</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏中证银行ETF</t>
+          <t>华安中证银行指数（LOF）A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.1023</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -6656,36 +6975,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160418</t>
+          <t>512730</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安中证银行指数（LOF）A</t>
+          <t>鹏华中证银行ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>98.14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1080</t>
+          <t>0.0972</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -6694,36 +7013,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>512730</t>
+          <t>159887</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华中证银行ETF</t>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>97.60</t>
+          <t>99.53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0950</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -6732,36 +7051,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002849</t>
+          <t>516310</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金信智能中国2025灵活配置混合</t>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.44</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0766</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -6770,32 +7089,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>512750</t>
+          <t>002849</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实中证锐联基本面50ETF</t>
+          <t>金信智能中国2025灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>81.82</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0678</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -6808,36 +7127,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>512750</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>嘉实中证锐联基本面50ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>98.76</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -6846,36 +7165,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>011971</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0324</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -6884,36 +7203,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>515280</t>
+          <t>160725</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国中证银行ETF</t>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -6922,36 +7241,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>168205</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中融中证银行指数（LOF）</t>
+          <t>富国中证银行ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0222</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -6960,36 +7279,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>515520</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大成MSCI中国A股质优价值100ETF</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>97.53</t>
+          <t>99.24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -6998,36 +7317,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>160725</t>
+          <t>168205</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+          <t>中融中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -7036,36 +7355,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>510690</t>
+          <t>011972</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴业上证180金融ETF</t>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -7074,6 +7393,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4954</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0994</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0913</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7978</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7605</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8307,7 +9708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/600016-民生银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>12.51</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>17.8</v>
+        <v>12.51</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>21.47</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>21.06</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D6" t="n">
-        <v>17.01</v>
+        <v>21.06</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>18.2</v>
+        <v>17.01</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>13.72</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1378 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.4216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3718</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8435</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3654</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3361</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2836</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2389</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1679</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.02</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏金融ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>96.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>510110</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>海富通上证周期ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1982,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9466</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016343</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4986</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4921</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4768</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3224</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2736</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2187</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159887</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证800银行ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012042</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证银行A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>510160</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方中证南方小康产业ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516310</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>516210</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011971</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510650</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上证金融地产ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011972</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013330</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证银行指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014028</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014983</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证银行C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-0.0151</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2000,7 +4637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3538,7 +6175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4886,7 +7523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6303,1088 +8940,6 @@
       </c>
       <c r="H37" t="n">
         <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512800</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>88.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.2697</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515290</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>天弘中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.88</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.1419</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>450009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国富中小盘股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>46.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.7684</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>450002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国富弹性市值混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>49.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.2784</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512700</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>23.32</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.97</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.8675</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011152</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富兰克林国海兴海回报混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>73.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.7093</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161121</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>18.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6461</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161723</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>16.48</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.45</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5784</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>161029</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富国中证银行指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4466</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>160631</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>12.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.64</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4367</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160517</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3445</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>160716</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>11.20</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2923</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>512820</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇添富中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>99.70</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2727</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515020</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>99.03</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1856</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009860</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1628</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>160418</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华安中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1023</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>512730</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏华中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0972</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159887</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>富国中证800银行交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>99.53</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0950</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>516310</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>易方达中证银行交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>99.17</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0764</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>81.82</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0678</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>512750</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>99.48</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>011971</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0324</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>160725</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>515280</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>99.35</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0222</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>99.24</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>168205</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中融中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0166</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>011972</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0151</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -7449,36 +9004,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515290</t>
+          <t>512800</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证银行ETF</t>
+          <t>华宝中证银行ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.47</t>
+          <t>88.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.42</t>
+          <t>99.11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4954</t>
+          <t>3.2697</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7487,36 +9042,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>450009</t>
+          <t>515290</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国富中小盘股票</t>
+          <t>天弘中证银行ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>63.15</t>
+          <t>84.46</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80.19</t>
+          <t>99.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1196</t>
+          <t>3.1419</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7525,36 +9080,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512800</t>
+          <t>450009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝中证银行ETF</t>
+          <t>国富中小盘股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.65</t>
+          <t>46.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.87</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>5.96</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.0994</t>
+          <t>2.7684</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -7573,22 +9128,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>53.35</t>
+          <t>49.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.06</t>
+          <t>87.45</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.3047</t>
+          <t>2.2784</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -7601,36 +9156,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>510230</t>
+          <t>512700</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰上证180金融ETF</t>
+          <t>南方中证银行ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>45.66</t>
+          <t>23.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>99.97</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0913</t>
+          <t>0.8675</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -7649,12 +9204,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.25</t>
+          <t>21.56</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>62.54</t>
+          <t>73.51</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -7664,11 +9219,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7978</t>
+          <t>0.7093</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -7677,36 +9232,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>512700</t>
+          <t>161121</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南方中证银行ETF</t>
+          <t>易方达中证银行指数（LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>18.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>99.61</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7605</t>
+          <t>0.6461</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -7715,36 +9270,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>161121</t>
+          <t>161723</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>易方达中证银行指数（LOF）A</t>
+          <t>招商中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>17.36</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.6198</t>
+          <t>0.5784</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -7753,36 +9308,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>160631</t>
+          <t>161029</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华中证银行指数（LOF）</t>
+          <t>富国中证银行指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>93.71</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.5411</t>
+          <t>0.4466</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -7791,36 +9346,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161723</t>
+          <t>160631</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商中证银行指数（LOF）</t>
+          <t>鹏华中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14.87</t>
+          <t>12.55</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5294</t>
+          <t>0.4367</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -7829,36 +9384,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>161029</t>
+          <t>160517</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国中证银行指数</t>
+          <t>博时中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>9.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.3372</t>
+          <t>0.3445</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -7867,36 +9422,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160517</t>
+          <t>160716</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时中证银行指数（LOF）</t>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8.67</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.3095</t>
+          <t>0.2923</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -7905,36 +9460,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160716</t>
+          <t>512820</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+          <t>汇添富中证银行ETF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.70</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>99.70</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.3028</t>
+          <t>0.2727</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -7943,36 +9498,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>512820</t>
+          <t>515020</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>汇添富中证银行ETF</t>
+          <t>华夏中证银行ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>99.37</t>
+          <t>99.03</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.1905</t>
+          <t>0.1856</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -7991,26 +9546,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.1567</t>
+          <t>0.1628</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -8019,36 +9574,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>515020</t>
+          <t>160418</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏中证银行ETF</t>
+          <t>华安中证银行指数（LOF）A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>93.66</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.1023</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -8057,36 +9612,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>160418</t>
+          <t>512730</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华安中证银行指数（LOF）A</t>
+          <t>鹏华中证银行ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.29</t>
+          <t>98.14</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1080</t>
+          <t>0.0972</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -8095,36 +9650,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>512730</t>
+          <t>159887</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>鹏华中证银行ETF</t>
+          <t>富国中证800银行交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>97.60</t>
+          <t>99.53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0770</t>
+          <t>0.0950</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -8133,36 +9688,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002849</t>
+          <t>516310</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>金信智能中国2025灵活配置混合</t>
+          <t>易方达中证银行交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>83.44</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0766</t>
+          <t>0.0764</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -8171,32 +9726,32 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>512750</t>
+          <t>002849</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实中证锐联基本面50ETF</t>
+          <t>金信智能中国2025灵活配置混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>99.51</t>
+          <t>81.82</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0400</t>
+          <t>0.0678</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -8209,36 +9764,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>515300</t>
+          <t>512750</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实沪深300红利低波动ETF</t>
+          <t>嘉实中证锐联基本面50ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>98.76</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0294</t>
+          <t>0.0375</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -8247,36 +9802,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>512530</t>
+          <t>011971</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>建信沪深300红利ETF</t>
+          <t>西藏东财中证银行指数型发起式证券投资基金A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0214</t>
+          <t>0.0324</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -8285,36 +9840,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>515280</t>
+          <t>160725</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国中证银行ETF</t>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>99.06</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -8323,36 +9878,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>168205</t>
+          <t>515280</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中融中证银行指数（LOF）</t>
+          <t>富国中证银行ETF</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>93.03</t>
+          <t>99.35</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0222</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -8361,36 +9916,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>515520</t>
+          <t>515300</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大成MSCI中国A股质优价值100ETF</t>
+          <t>嘉实沪深300红利低波动ETF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>97.53</t>
+          <t>99.24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.02</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0198</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -8399,36 +9954,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>160725</t>
+          <t>168205</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+          <t>中融中证银行指数（LOF）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>94.92</t>
+          <t>92.86</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.83</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0166</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -8437,36 +9992,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>510690</t>
+          <t>011972</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>兴业上证180金融ETF</t>
+          <t>西藏东财中证银行指数型发起式证券投资基金C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0029</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -8475,6 +10030,1088 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515290</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4954</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512800</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0994</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>450002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国富弹性市值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3047</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>510230</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0913</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011152</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富兰克林国海兴海回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7978</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7605</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161121</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161723</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5294</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证银行指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160517</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3095</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160716</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512820</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证银行指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1567</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160418</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安中证银行指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>512730</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512750</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515280</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国中证银行ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168205</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融中证银行指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160725</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实中证锐联基本面50指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510690</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>兴业上证180金融ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9706,1352 +12343,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512800</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>92.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.4216</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>160631</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.15</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3718</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>510230</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国泰上证180金融ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49.25</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3445</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512700</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.50</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.75</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8435</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161723</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>招商中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>12.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5695</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161121</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3654</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>160716</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3361</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>161029</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富国中证银行指数</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.33</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2836</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160418</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安中证银行指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2389</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512820</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>汇添富中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.55</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2174</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160517</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1713</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009860</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>易方达中证银行指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.53</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1679</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515020</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>98.14</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1453</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>510160</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方中证南方小康产业ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>98.43</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0950</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>512730</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏华中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>97.02</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0725</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0723</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002849</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>金信智能中国2025灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>85.33</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0586</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>512390</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>平安MSCI中国A股低波动ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0502</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>512750</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0334</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>512530</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>建信沪深300红利ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>510650</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华夏金融ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>97.81</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>515280</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国中证银行ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>96.57</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.66</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0210</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>515520</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>大成MSCI中国A股质优价值100ETF</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>97.29</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0207</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>168205</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中融中证银行指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>515300</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>嘉实沪深300红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>98.29</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0197</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>510690</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>兴业上证180金融ETF</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>98.52</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>510110</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>海富通上证周期ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.87</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>160725</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>嘉实中证锐联基本面50指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006343</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际低波动指数A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006344</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际低波动指数C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>